--- a/20220426_algo_v2_10/algo_results/perf_result/item_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/item_cf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01233842538190364</v>
+        <v>0.01223798984507226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01154824818946956</v>
+        <v>0.0120812381636518</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01264993117913089</v>
+        <v>0.01273677335075114</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01278038601982264</v>
+        <v>0.01275009807767752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01228196250081662</v>
+        <v>0.01223982196622595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01208360548661006</v>
+        <v>0.01266235885386071</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01325670998498008</v>
+        <v>0.01245923026744945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0131390659555093</v>
+        <v>0.01290406673618352</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0134570159393781</v>
+        <v>0.01183935112506541</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01293525837851963</v>
+        <v>0.0132437369519833</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01117062973608571</v>
+        <v>0.01243004034882208</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01266814679378347</v>
+        <v>0.01220546961686574</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01207492983486718</v>
+        <v>0.01272430668841762</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01179554390563565</v>
+        <v>0.01297092947464477</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01182774619355682</v>
+        <v>0.0134447200104425</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01226753670473083</v>
+        <v>0.01214099216710183</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01222142343637671</v>
+        <v>0.01282468589284552</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01277622058535949</v>
+        <v>0.01236415695971888</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01251548138973991</v>
+        <v>0.01227314270792532</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01233359436178543</v>
+        <v>0.01249918625089512</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01349765258215962</v>
+        <v>0.01228597568945236</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01270606633218218</v>
+        <v>0.01337836082608131</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01247795126412752</v>
+        <v>0.01254082299150882</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01336898395721925</v>
+        <v>0.01300559240473404</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01309958289885297</v>
+        <v>0.01266649255680334</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01200887612583214</v>
+        <v>0.01284307973140361</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01343244653103808</v>
+        <v>0.01260367008424215</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01232796295088383</v>
+        <v>0.01210970740328599</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01284559207094418</v>
+        <v>0.01266731962128632</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01206941544885178</v>
+        <v>0.01162411023313524</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01231350576584794</v>
+        <v>0.01243732499837208</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01285145802074499</v>
+        <v>0.01272679806813732</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01279039415296267</v>
+        <v>0.0118837740777016</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01235374861102033</v>
+        <v>0.01206784083496412</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01079842931937173</v>
+        <v>0.01255148068248676</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01185408343702928</v>
+        <v>0.01176932130247156</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01194361049471348</v>
+        <v>0.01162031596814206</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01168941422320904</v>
+        <v>0.01285984724851492</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01342281879194631</v>
+        <v>0.01214019972586646</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01177779231826212</v>
+        <v>0.01310727094880991</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01243862520458265</v>
+        <v>0.01231992699302523</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01357702349869452</v>
+        <v>0.0124101894186806</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01187369519832985</v>
+        <v>0.01245598017477501</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01288845273143605</v>
+        <v>0.01234971249346576</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01170623242430188</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01227795193312435</v>
+        <v>0.0115991137755767</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01174704692292632</v>
+        <v>0.01218082334549244</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01285481239804242</v>
+        <v>0.01312796516539936</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01283722142577871</v>
+        <v>0.01195843952166242</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01195687683763476</v>
+        <v>0.01291500880568782</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01243819171660225</v>
+        <v>0.01247017398394145</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0006214770658939165</v>
+        <v>0.0004417401749065305</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3197969543147208</v>
+        <v>0.3047001620745543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3010204081632653</v>
+        <v>0.3093645484949833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3143322475570032</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.327212020033389</v>
+        <v>0.3207236842105263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3037156704361874</v>
+        <v>0.2987220447284345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3042763157894737</v>
+        <v>0.307936507936508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.334983498349835</v>
+        <v>0.3193979933110368</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3311475409836065</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3366013071895425</v>
+        <v>0.3120689655172414</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3183279742765273</v>
+        <v>0.3290113452188007</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2928082191780822</v>
+        <v>0.3172757475083057</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3123993558776167</v>
+        <v>0.3174872665534805</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3042763157894737</v>
+        <v>0.3233830845771145</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2995008319467554</v>
+        <v>0.3194221508828251</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3131487889273357</v>
+        <v>0.3311897106109325</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3107438016528926</v>
+        <v>0.31</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3096026490066225</v>
+        <v>0.3229508196721311</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.3099510603588907</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3133333333333334</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3129139072847682</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3427152317880794</v>
+        <v>0.3087027914614122</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3450586264656617</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3067092651757188</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3327787021630615</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.327150084317032</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.3240131578947368</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.3167495854063018</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.3269537480063796</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.3322314049586777</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.311336717428088</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.3338735818476499</v>
-      </c>
       <c r="AC3" t="n">
-        <v>0.3078175895765473</v>
+        <v>0.2950558213716108</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3218954248366013</v>
+        <v>0.3144246353322528</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.3058419243986255</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3219761499148211</v>
+        <v>0.3026941362916006</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3224222585924714</v>
+        <v>0.3344768439108062</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.3116057233704292</v>
+        <v>0.3033333333333333</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3203389830508475</v>
+        <v>0.3003246753246753</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2864583333333333</v>
+        <v>0.3086816720257235</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2952691680261011</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.298531810766721</v>
+        <v>0.2956810631229236</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2882447665056361</v>
+        <v>0.3266998341625207</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.337152209492635</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.3005008347245409</v>
+        <v>0.3262987012987013</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3044871794871795</v>
+        <v>0.3113673805601318</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.3495798319327731</v>
+        <v>0.3161397670549085</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3033333333333333</v>
+        <v>0.3178036605657238</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.3167202572347267</v>
+        <v>0.3024</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2948929159802307</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3159663865546218</v>
+        <v>0.2942148760330578</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3056027164685908</v>
+        <v>0.3169491525423729</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3338983050847458</v>
+        <v>0.3247588424437299</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.3322091062394604</v>
+        <v>0.3117546848381602</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.3039867109634551</v>
+        <v>0.3193548387096774</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.3150382613535851</v>
+        <v>0.314749106558385</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01482632256280237</v>
+        <v>0.01160481518488904</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,321 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02376013577220441</v>
+        <v>0.02353088428562489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02224316682375118</v>
+        <v>0.02325435233486267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02432108877827484</v>
+        <v>0.02449748743718593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02459993724505805</v>
+        <v>0.02452521695384229</v>
       </c>
       <c r="F4" t="n">
+        <v>0.02351609657947686</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02432449376214657</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02398292315419387</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02482758620689655</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02281320897403579</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02546252743806836</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.02392284569138277</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02350722815839095</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02448518332496233</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.02492953335421234</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.02584044154540893</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02336683417085427</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02466971385636466</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.02377972465581978</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.02362105792184948</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.02403454966514365</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.02363144994029288</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.02575804939043451</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.02409638554216867</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0250328556230052</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0243887107926331</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02470684141217783</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0242889504153033</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.02326458752515091</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.02435350238513683</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02239698018244731</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.02389291968976733</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.02452059100911663</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.02287150486961986</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.02320331117521635</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0241221182235065</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.02262443438914027</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.02236180904522613</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0247456349704811</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.02334776878177368</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.02520218168139928</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0237020316027088</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.02388284834391301</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.02397238782554127</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.02373030322054115</v>
+      </c>
+      <c r="AT4" t="n">
         <v>0.02360919251538365</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.02324412614650082</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02550411458006156</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02527527527527528</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.02587939698492462</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02486031765961454</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.02152026176692676</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.02434891747725133</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.02322807458095298</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.02269718176659731</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.02279453434922234</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.02360326428123038</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.02351461804464005</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0245875933011353</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.02407674462348737</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.02373179306880964</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0259723964868256</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.02447903590258599</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0240100565681961</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.02568761355804774</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.02520534202771333</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.02312574624520832</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.02582586347395474</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.02370649106302916</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.02470529219964886</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.02318586289008648</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.02371987951807229</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.0247176913425345</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.02457218078104432</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.02379004342626974</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.02081231079717457</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.02279309910590606</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.0229683087543144</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.02246767917660349</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.02581777165058278</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.02266717038156403</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.02390087426882194</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.02613886270813698</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.02285283776996484</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.0247689696360093</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.02251855579318153</v>
-      </c>
       <c r="AU4" t="n">
-        <v>0.02363739234299365</v>
+        <v>0.0223183499467118</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02262443438914027</v>
+        <v>0.02346004265462301</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02475651900722589</v>
+        <v>0.02523580485976638</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02471924211054646</v>
+        <v>0.02303335431088735</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02300873829131829</v>
+        <v>0.02482602971600527</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02393111993416008</v>
+        <v>0.02398945643021604</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.001189218056872209</v>
+        <v>0.0008451829340080011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.06332945285215366</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.06332945285215366</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.06332945285215366</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.06332945285215366</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.06332945285215366</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.06282654249126894</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0002807881430813755</v>
       </c>
     </row>
   </sheetData>

--- a/20220426_algo_v2_10/algo_results/perf_result/item_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/item_cf.xlsx
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01223798984507226</v>
+        <v>0.01231350576584794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0120812381636518</v>
+        <v>0.01334461658638198</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01273677335075114</v>
+        <v>0.01259626680590001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01275009807767752</v>
+        <v>0.0126458509875497</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01223982196622595</v>
+        <v>0.01182388293702639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01266235885386071</v>
+        <v>0.01162107462296794</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01245923026744945</v>
+        <v>0.01305057096247961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01290406673618352</v>
+        <v>0.01234648549777894</v>
       </c>
       <c r="J2" t="n">
+        <v>0.01200809241010246</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.01183935112506541</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.0132437369519833</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.01243004034882208</v>
+        <v>0.01363695680542868</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01220546961686574</v>
+        <v>0.01225634004824304</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01272430668841762</v>
+        <v>0.01339344048085718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01297092947464477</v>
+        <v>0.01302931596091205</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0134447200104425</v>
+        <v>0.01228597568945236</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01214099216710183</v>
+        <v>0.01301078783916313</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01282468589284552</v>
+        <v>0.01188532619343042</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01236415695971888</v>
+        <v>0.0110392579528382</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01227314270792532</v>
+        <v>0.01202928870292887</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01249918625089512</v>
+        <v>0.0122667362651703</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01228597568945236</v>
+        <v>0.01238349736035977</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01337836082608131</v>
+        <v>0.01200495856984407</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01254082299150882</v>
+        <v>0.01215447951382082</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01300559240473404</v>
+        <v>0.01151743883394066</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01266649255680334</v>
+        <v>0.01366191659040397</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01284307973140361</v>
+        <v>0.0124803972817564</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01260367008424215</v>
+        <v>0.01202614379084967</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01210970740328599</v>
+        <v>0.01336201277538782</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01266731962128632</v>
+        <v>0.01307742355237476</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01162411023313524</v>
+        <v>0.01303865962579047</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01243732499837208</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01272679806813732</v>
+        <v>0.01195609564876519</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0118837740777016</v>
+        <v>0.01161349252952306</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01206784083496412</v>
+        <v>0.01208597373750572</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01255148068248676</v>
+        <v>0.01258723015717733</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01176932130247156</v>
+        <v>0.01227554684949396</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01162031596814206</v>
+        <v>0.01214654215372559</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01285984724851492</v>
+        <v>0.01129906603095814</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01214019972586646</v>
+        <v>0.01305397819985641</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01310727094880991</v>
+        <v>0.01223902087832973</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01231992699302523</v>
+        <v>0.01336201277538782</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0124101894186806</v>
+        <v>0.01201514953637195</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01245598017477501</v>
+        <v>0.01260696322424718</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01234971249346576</v>
+        <v>0.01288086831437165</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.01311240133081088</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0115991137755767</v>
+        <v>0.01221025138752857</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01218082334549244</v>
+        <v>0.01246166895021857</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01312796516539936</v>
+        <v>0.01259462281388671</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01195843952166242</v>
+        <v>0.01178473222469556</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01291500880568782</v>
+        <v>0.01317076351307296</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01247017398394145</v>
+        <v>0.01243464361555669</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0004417401749065305</v>
+        <v>0.0006091647823135756</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3047001620745543</v>
+        <v>0.313953488372093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3093645484949833</v>
+        <v>0.3306451612903226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319672131147541</v>
+        <v>0.3249158249158249</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3207236842105263</v>
+        <v>0.3249581239530988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2987220447284345</v>
+        <v>0.3001658374792703</v>
       </c>
       <c r="G3" t="n">
-        <v>0.307936507936508</v>
+        <v>0.3011844331641286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3193979933110368</v>
+        <v>0.315955766192733</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3267326732673267</v>
+        <v>0.3058252427184466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3120689655172414</v>
+        <v>0.3082077051926298</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3290113452188007</v>
+        <v>0.3021702838063439</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3172757475083057</v>
+        <v>0.3381877022653721</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3174872665534805</v>
+        <v>0.3133333333333334</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3233830845771145</v>
+        <v>0.3248811410459588</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3194221508828251</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3311897106109325</v>
+        <v>0.3037156704361874</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.31</v>
+        <v>0.3246329526916802</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3229508196721311</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3099510603588907</v>
+        <v>0.2840336134453781</v>
       </c>
       <c r="T3" t="n">
+        <v>0.3123938879456706</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.3133333333333334</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.3116883116883117</v>
-      </c>
       <c r="V3" t="n">
-        <v>0.3087027914614122</v>
+        <v>0.3140495867768595</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3450586264656617</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3067092651757188</v>
+        <v>0.3044189852700491</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3327787021630615</v>
+        <v>0.3020477815699659</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.327150084317032</v>
+        <v>0.3466003316749585</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3240131578947368</v>
+        <v>0.3036565977742448</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2950558213716108</v>
+        <v>0.3322528363047001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3144246353322528</v>
+        <v>0.3366834170854272</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3058419243986255</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3026941362916006</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3344768439108062</v>
+        <v>0.305</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.3033333333333333</v>
+        <v>0.2991596638655462</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3003246753246753</v>
+        <v>0.3119730185497471</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.3086816720257235</v>
+        <v>0.3200663349917081</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2912621359223301</v>
+        <v>0.3175675675675675</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2956810631229236</v>
+        <v>0.3024390243902439</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.3266998341625207</v>
+        <v>0.270735524256651</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.303921568627451</v>
+        <v>0.3194888178913738</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.3262987012987013</v>
+        <v>0.3096026490066225</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3113673805601318</v>
+        <v>0.3317152103559871</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.3161397670549085</v>
+        <v>0.3166953528399312</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3178036605657238</v>
+        <v>0.3163934426229508</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.3024</v>
+        <v>0.3162118780096308</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3112582781456953</v>
+        <v>0.3226324237560192</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2942148760330578</v>
+        <v>0.3040650406504065</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3169491525423729</v>
+        <v>0.3080645161290322</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3247588424437299</v>
+        <v>0.32220367278798</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.3117546848381602</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.3193548387096774</v>
+        <v>0.3284552845528455</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.314749106558385</v>
+        <v>0.3131586679039374</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01160481518488904</v>
+        <v>0.01439754915207655</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,160 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02353088428562489</v>
+        <v>0.02369757381982321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02325435233486267</v>
+        <v>0.02565386059316731</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02449748743718593</v>
+        <v>0.02425232470469967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02452521695384229</v>
+        <v>0.02434433429539465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02351609657947686</v>
+        <v>0.0227515555276224</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02432449376214657</v>
+        <v>0.02237867739502137</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02398292315419387</v>
+        <v>0.02506579771901241</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02482758620689655</v>
+        <v>0.02373477332663569</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02281320897403579</v>
+        <v>0.02311557788944724</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02546252743806836</v>
+        <v>0.0227859255995468</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02392284569138277</v>
+        <v>0.02621675865529352</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02350722815839095</v>
+        <v>0.02358993663341489</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02448518332496233</v>
+        <v>0.02572629729560143</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02492953335421234</v>
+        <v>0.02506579771901241</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02584044154540893</v>
+        <v>0.02361660699704793</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02336683417085427</v>
+        <v>0.02501885843600704</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02466971385636466</v>
+        <v>0.02282131661442006</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02377972465581978</v>
+        <v>0.02125251509054326</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02362105792184948</v>
+        <v>0.02316650928548946</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02403454966514365</v>
+        <v>0.02360919251538365</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02363144994029288</v>
+        <v>0.02382743917732631</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02575804939043451</v>
+        <v>0.02307065387749984</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02409638554216867</v>
+        <v>0.02337564408696745</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0250328556230052</v>
+        <v>0.02218879277924032</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0243887107926331</v>
+        <v>0.02628765486447393</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02470684141217783</v>
+        <v>0.02397539697483211</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0242889504153033</v>
+        <v>0.02314465408805032</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02326458752515091</v>
+        <v>0.02569083275894479</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02435350238513683</v>
+        <v>0.02517692741278888</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02239698018244731</v>
+        <v>0.02508938091952581</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02389291968976733</v>
+        <v>0.02335803089287957</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02452059100911663</v>
+        <v>0.02301018483591098</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02287150486961986</v>
+        <v>0.02235900012561236</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02320331117521635</v>
+        <v>0.02327044025157233</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0241221182235065</v>
+        <v>0.0242218875502008</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02262443438914027</v>
+        <v>0.02363739234299365</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02236180904522613</v>
+        <v>0.0233550979407333</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0247456349704811</v>
+        <v>0.02169278996865204</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02334776878177368</v>
+        <v>0.02508308772809933</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.02520218168139928</v>
+        <v>0.02354718881823333</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0237020316027088</v>
+        <v>0.02568922305764411</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02388284834391301</v>
+        <v>0.02315193457061969</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02397238782554127</v>
+        <v>0.0242477542559206</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02373030322054115</v>
+        <v>0.02475340830558522</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02360919251538365</v>
+        <v>0.02520060180541625</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0223183499467118</v>
+        <v>0.02347771500313873</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02346004265462301</v>
+        <v>0.02395434878033486</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02523580485976638</v>
+        <v>0.02424166300320291</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02303335431088735</v>
+        <v>0.02268431001890359</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02482602971600527</v>
+        <v>0.0253259779338014</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02398945643021604</v>
+        <v>0.02391907208483378</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0008451829340080011</v>
+        <v>0.001164823396052658</v>
       </c>
     </row>
     <row r="5">
@@ -1083,130 +1083,130 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06239813736903376</v>
+        <v>0.0630966239813737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06332945285215366</v>
+        <v>0.0630966239813737</v>
       </c>
       <c r="D5" t="n">
         <v>0.0630966239813737</v>
       </c>
       <c r="E5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.06263096623981373</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.06263096623981373</v>
       </c>
-      <c r="G5" t="n">
+      <c r="M5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.0630966239813737</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="P5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.06263096623981373</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06239813736903376</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.0630966239813737</v>
       </c>
-      <c r="J5" t="n">
+      <c r="AA5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.06332945285215366</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.06263096623981373</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.06263096623981373</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.06263096623981373</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.06263096623981373</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.06239813736903376</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.06332945285215366</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.06239813736903376</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.06263096623981373</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.06263096623981373</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.06263096623981373</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.06332945285215366</v>
-      </c>
       <c r="AH5" t="n">
-        <v>0.0630966239813737</v>
+        <v>0.06286379511059371</v>
       </c>
       <c r="AI5" t="n">
         <v>0.06263096623981373</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0.0630966239813737</v>
+      </c>
+      <c r="AK5" t="n">
         <v>0.06239813736903376</v>
       </c>
-      <c r="AK5" t="n">
-        <v>0.0630966239813737</v>
-      </c>
       <c r="AL5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0.06263096623981373</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.06332945285215366</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AP5" t="n">
+        <v>0.06286379511059371</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>0.06332945285215366</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.06286379511059371</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.06263096623981373</v>
       </c>
       <c r="AR5" t="n">
         <v>0.06286379511059371</v>
@@ -1215,28 +1215,28 @@
         <v>0.06263096623981373</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.06239813736903376</v>
+        <v>0.06286379511059371</v>
       </c>
       <c r="AU5" t="n">
         <v>0.06239813736903376</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.06239813736903376</v>
+        <v>0.06286379511059371</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.06263096623981373</v>
+        <v>0.06286379511059371</v>
       </c>
       <c r="AX5" t="n">
         <v>0.06263096623981373</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.06286379511059371</v>
+        <v>0.0630966239813737</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.06282654249126894</v>
+        <v>0.06287310826542494</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0002807881430813755</v>
+        <v>0.000213187858295872</v>
       </c>
     </row>
   </sheetData>
